--- a/tspi/ciclo-2/task2/20105914.xlsx
+++ b/tspi/ciclo-2/task2/20105914.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="2100" windowWidth="16380" windowHeight="8200" tabRatio="619"/>
+    <workbookView xWindow="6420" yWindow="2240" windowWidth="16380" windowHeight="8200" tabRatio="619"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -441,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALQ2"/>
+  <dimension ref="A1:ALQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
@@ -476,6 +476,30 @@
       <c r="E2" s="2">
         <f>75/60</f>
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>110/60</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
